--- a/sofaplayer/La_Liga/Real Sociedad_stats.xlsx
+++ b/sofaplayer/La_Liga/Real Sociedad_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL26"/>
+  <dimension ref="A1:DL25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,43 +1035,43 @@
         <v>823622</v>
       </c>
       <c r="E2" t="n">
-        <v>7.15</v>
+        <v>7.1333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>1744</v>
+        <v>1804</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>9.7888</v>
+        <v>10.6871</v>
       </c>
       <c r="L2" t="n">
-        <v>193.77777777778</v>
+        <v>180.4</v>
       </c>
       <c r="M2" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
         <v>11</v>
       </c>
       <c r="P2" t="n">
-        <v>15.51724137931</v>
+        <v>16.393442622951</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
         <v>100</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
         <v>3</v>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>2</v>
@@ -1101,10 +1101,10 @@
         <v>3</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.66451568</v>
+        <v>2.67288932</v>
       </c>
       <c r="AB2" t="n">
-        <v>755</v>
+        <v>775</v>
       </c>
       <c r="AC2" t="n">
         <v>9</v>
@@ -1113,22 +1113,22 @@
         <v>30</v>
       </c>
       <c r="AE2" t="n">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="AF2" t="n">
-        <v>76.689976689977</v>
+        <v>77.22095671981801</v>
       </c>
       <c r="AG2" t="n">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="AH2" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AI2" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AJ2" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AK2" t="n">
         <v>11</v>
@@ -1152,7 +1152,7 @@
         <v>17</v>
       </c>
       <c r="AR2" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AS2" t="n">
         <v>12</v>
@@ -1179,31 +1179,31 @@
         <v>53.488372093023</v>
       </c>
       <c r="BA2" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="BB2" t="n">
-        <v>41.379310344828</v>
+        <v>41.101694915254</v>
       </c>
       <c r="BC2" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BD2" t="n">
-        <v>49.645390070922</v>
+        <v>49.305555555556</v>
       </c>
       <c r="BE2" t="n">
         <v>26</v>
       </c>
       <c r="BF2" t="n">
-        <v>28.571428571429</v>
+        <v>28.260869565217</v>
       </c>
       <c r="BG2" t="n">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="BH2" t="n">
         <v>15</v>
       </c>
       <c r="BI2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BJ2" t="n">
         <v>11</v>
@@ -1221,19 +1221,19 @@
         <v>1</v>
       </c>
       <c r="BO2" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>143</v>
+        <v>149.8</v>
       </c>
       <c r="BR2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BT2" t="n">
         <v>100</v>
@@ -1242,10 +1242,10 @@
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BW2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BX2" t="n">
         <v>0</v>
@@ -1254,13 +1254,13 @@
         <v>2</v>
       </c>
       <c r="BZ2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="CA2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CB2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CC2" t="n">
         <v>21</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="CK2" t="n">
         <v>2</v>
@@ -1317,10 +1317,10 @@
         <v>13</v>
       </c>
       <c r="CU2" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="CV2" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="DG2" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>1211632</v>
       </c>
       <c r="E3" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.00188827</v>
+        <v>0.00938251</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -1467,82 +1467,82 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>64.705882352941</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA3" t="n">
         <v>3</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="BB3" t="n">
+        <v>75</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="n">
         <v>50</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>100</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
       </c>
       <c r="BE3" t="n">
         <v>2</v>
@@ -1551,10 +1551,10 @@
         <v>100</v>
       </c>
       <c r="BG3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BH3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI3" t="n">
         <v>0</v>
@@ -1575,139 +1575,139 @@
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>6.7</v>
+        <v>12.8</v>
       </c>
       <c r="BR3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS3" t="n">
         <v>0</v>
       </c>
       <c r="BT3" t="n">
+        <v>6</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF3" t="n">
         <v>3</v>
       </c>
-      <c r="BU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>1</v>
-      </c>
       <c r="DG3" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1745,16 +1745,16 @@
         <v>280979</v>
       </c>
       <c r="E4" t="n">
-        <v>6.8869565217391</v>
+        <v>6.8791666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
         <v>17</v>
       </c>
       <c r="H4" t="n">
-        <v>1285</v>
+        <v>1330</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -1763,13 +1763,13 @@
         <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.801</v>
+        <v>2.8516</v>
       </c>
       <c r="L4" t="n">
-        <v>214.16666666667</v>
+        <v>221.66666666667</v>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N4" t="n">
         <v>14</v>
@@ -1778,7 +1778,7 @@
         <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>20</v>
+        <v>18.75</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1811,46 +1811,46 @@
         <v>3</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.75455891</v>
+        <v>1.93026591</v>
       </c>
       <c r="AB4" t="n">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="AC4" t="n">
         <v>4</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="AF4" t="n">
-        <v>72.459893048128</v>
+        <v>72.609819121447</v>
       </c>
       <c r="AG4" t="n">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="AH4" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AJ4" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK4" t="n">
         <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>51.724137931034</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AN4" t="n">
-        <v>24.444444444444</v>
+        <v>26.415094339623</v>
       </c>
       <c r="AO4" t="n">
         <v>3</v>
@@ -1862,7 +1862,7 @@
         <v>9</v>
       </c>
       <c r="AR4" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AS4" t="n">
         <v>23</v>
@@ -1871,7 +1871,7 @@
         <v>5</v>
       </c>
       <c r="AU4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV4" t="n">
         <v>1</v>
@@ -1907,10 +1907,10 @@
         <v>40</v>
       </c>
       <c r="BG4" t="n">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="BH4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BI4" t="n">
         <v>22</v>
@@ -1931,22 +1931,22 @@
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BP4" t="n">
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>158.4</v>
+        <v>165.1</v>
       </c>
       <c r="BR4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS4" t="n">
         <v>9</v>
       </c>
       <c r="BT4" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -1964,19 +1964,19 @@
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CA4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CB4" t="n">
         <v>17</v>
       </c>
       <c r="CC4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CD4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CE4" t="n">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CK4" t="n">
         <v>3</v>
@@ -2018,13 +2018,13 @@
         <v>0</v>
       </c>
       <c r="CR4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CS4" t="n">
         <v>28</v>
       </c>
       <c r="CT4" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="CU4" t="n">
         <v>80</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="DA4" t="n">
         <v>12</v>
@@ -2060,10 +2060,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="DG4" t="n">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2101,16 +2101,16 @@
         <v>1026015</v>
       </c>
       <c r="E5" t="n">
-        <v>6.85</v>
+        <v>6.7571428571429</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2122,7 +2122,7 @@
         <v>1.519</v>
       </c>
       <c r="L5" t="n">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="M5" t="n">
         <v>6</v>
@@ -2167,10 +2167,10 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.10837654</v>
+        <v>0.10842666</v>
       </c>
       <c r="AB5" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AC5" t="n">
         <v>1</v>
@@ -2179,16 +2179,16 @@
         <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>53.571428571429</v>
+        <v>54.545454545455</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -2248,13 +2248,13 @@
         <v>9</v>
       </c>
       <c r="BB5" t="n">
-        <v>56.25</v>
+        <v>52.941176470588</v>
       </c>
       <c r="BC5" t="n">
         <v>4</v>
       </c>
       <c r="BD5" t="n">
-        <v>57.142857142857</v>
+        <v>50</v>
       </c>
       <c r="BE5" t="n">
         <v>5</v>
@@ -2263,7 +2263,7 @@
         <v>55.555555555556</v>
       </c>
       <c r="BG5" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BH5" t="n">
         <v>2</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK5" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>41.1</v>
+        <v>47.3</v>
       </c>
       <c r="BR5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BS5" t="n">
         <v>2</v>
       </c>
       <c r="BT5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC5" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="CU5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CV5" t="n">
         <v>4</v>
@@ -2416,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="DG5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -4593,32 +4593,32 @@
         <v>839585</v>
       </c>
       <c r="E12" t="n">
-        <v>6.54</v>
+        <v>6.6666666666667</v>
       </c>
       <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
         <v>5</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
+        <v>270</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.3432</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>4</v>
       </c>
-      <c r="H12" t="n">
-        <v>210</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2828</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3</v>
-      </c>
       <c r="N12" t="n">
         <v>1</v>
       </c>
@@ -4659,10 +4659,10 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.04879128</v>
+        <v>0.16626928</v>
       </c>
       <c r="AB12" t="n">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -4671,28 +4671,28 @@
         <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="AF12" t="n">
-        <v>73.68421052631599</v>
+        <v>79.80769230769199</v>
       </c>
       <c r="AG12" t="n">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="AI12" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AK12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AL12" t="n">
-        <v>66.666666666667</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
@@ -4704,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="AP12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>2</v>
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4731,100 +4731,100 @@
         <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ12" t="n">
         <v>50</v>
       </c>
       <c r="BA12" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="BB12" t="n">
-        <v>60.606060606061</v>
+        <v>63.04347826087</v>
       </c>
       <c r="BC12" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>65.51724137930999</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>58.823529411765</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>29</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="n">
         <v>13</v>
       </c>
-      <c r="BD12" t="n">
-        <v>65</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>53.846153846154</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>26</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>9</v>
-      </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>32.7</v>
+        <v>40</v>
       </c>
       <c r="BR12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS12" t="n">
         <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
       </c>
       <c r="BV12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ12" t="n">
         <v>2</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>1</v>
       </c>
       <c r="CA12" t="n">
         <v>2</v>
       </c>
       <c r="CB12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CD12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="CK12" t="n">
         <v>1</v>
@@ -4869,16 +4869,16 @@
         <v>0</v>
       </c>
       <c r="CS12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CT12" t="n">
         <v>2</v>
       </c>
       <c r="CU12" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="CV12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CW12" t="n">
         <v>0</v>
@@ -4890,13 +4890,13 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="DA12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DB12" t="n">
-        <v>60</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4908,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="DG12" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4949,16 +4949,16 @@
         <v>832427</v>
       </c>
       <c r="E13" t="n">
-        <v>6.8578947368421</v>
+        <v>6.875</v>
       </c>
       <c r="F13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>1211</v>
+        <v>1301</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4967,13 +4967,13 @@
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>1.6774</v>
+        <v>1.6923</v>
       </c>
       <c r="L13" t="n">
-        <v>605.5</v>
+        <v>650.5</v>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N13" t="n">
         <v>12</v>
@@ -4982,7 +4982,7 @@
         <v>3</v>
       </c>
       <c r="P13" t="n">
-        <v>10</v>
+        <v>9.523809523809501</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -5015,58 +5015,58 @@
         <v>2</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.40347957</v>
+        <v>1.98172657</v>
       </c>
       <c r="AB13" t="n">
-        <v>727</v>
+        <v>798</v>
       </c>
       <c r="AC13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE13" t="n">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="AF13" t="n">
-        <v>86.851851851852</v>
+        <v>87.333333333333</v>
       </c>
       <c r="AG13" t="n">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="AH13" t="n">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="AI13" t="n">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="AJ13" t="n">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="AK13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>52.083333333333</v>
+        <v>52.941176470588</v>
       </c>
       <c r="AM13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>32.352941176471</v>
+        <v>37.5</v>
       </c>
       <c r="AO13" t="n">
         <v>8</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ13" t="n">
         <v>4</v>
       </c>
       <c r="AR13" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AS13" t="n">
         <v>9</v>
@@ -5087,22 +5087,22 @@
         <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ13" t="n">
-        <v>66.666666666667</v>
+        <v>70</v>
       </c>
       <c r="BA13" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="BB13" t="n">
-        <v>45.454545454545</v>
+        <v>46.153846153846</v>
       </c>
       <c r="BC13" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="BD13" t="n">
-        <v>47.619047619048</v>
+        <v>48.314606741573</v>
       </c>
       <c r="BE13" t="n">
         <v>5</v>
@@ -5111,13 +5111,13 @@
         <v>33.333333333333</v>
       </c>
       <c r="BG13" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="BH13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BI13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
@@ -5135,28 +5135,28 @@
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>130.3</v>
+        <v>137.5</v>
       </c>
       <c r="BR13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS13" t="n">
         <v>4</v>
       </c>
       <c r="BT13" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="BU13" t="n">
         <v>1</v>
       </c>
       <c r="BV13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW13" t="n">
         <v>0</v>
@@ -5171,67 +5171,67 @@
         <v>9</v>
       </c>
       <c r="CA13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CB13" t="n">
         <v>11</v>
       </c>
       <c r="CC13" t="n">
+        <v>46</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>32</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>16</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>28</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>10</v>
+      </c>
+      <c r="CT13" t="n">
         <v>40</v>
       </c>
-      <c r="CD13" t="n">
-        <v>27</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ13" t="n">
-        <v>12</v>
-      </c>
-      <c r="CK13" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR13" t="n">
-        <v>22</v>
-      </c>
-      <c r="CS13" t="n">
-        <v>9</v>
-      </c>
-      <c r="CT13" t="n">
-        <v>34</v>
-      </c>
       <c r="CU13" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="CV13" t="n">
         <v>10</v>
@@ -5246,13 +5246,13 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="DA13" t="n">
         <v>12</v>
       </c>
       <c r="DB13" t="n">
-        <v>52.173913043478</v>
+        <v>50</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5264,10 +5264,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="DG13" t="n">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="DH13" t="n">
         <v>1</v>
@@ -5661,16 +5661,16 @@
         <v>980410</v>
       </c>
       <c r="E15" t="n">
-        <v>6.8714285714286</v>
+        <v>6.88</v>
       </c>
       <c r="F15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" t="n">
         <v>7</v>
       </c>
       <c r="H15" t="n">
-        <v>614</v>
+        <v>644</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -5727,10 +5727,10 @@
         <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.23124285</v>
+        <v>0.27182425</v>
       </c>
       <c r="AB15" t="n">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="AC15" t="n">
         <v>1</v>
@@ -5739,46 +5739,46 @@
         <v>4</v>
       </c>
       <c r="AE15" t="n">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="AF15" t="n">
-        <v>85.28301886792499</v>
+        <v>85.18518518518501</v>
       </c>
       <c r="AG15" t="n">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="AH15" t="n">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AI15" t="n">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="AJ15" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AK15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>82.35294117647101</v>
+        <v>78.947368421053</v>
       </c>
       <c r="AM15" t="n">
         <v>1</v>
       </c>
       <c r="AN15" t="n">
-        <v>33.333333333333</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
         <v>2</v>
       </c>
       <c r="AP15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AQ15" t="n">
         <v>4</v>
       </c>
       <c r="AR15" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AS15" t="n">
         <v>5</v>
@@ -5799,22 +5799,22 @@
         <v>0</v>
       </c>
       <c r="AY15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ15" t="n">
+        <v>64.705882352941</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>57</v>
+      </c>
+      <c r="BB15" t="n">
         <v>60</v>
       </c>
-      <c r="BA15" t="n">
-        <v>53</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>60.227272727273</v>
-      </c>
       <c r="BC15" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="BD15" t="n">
-        <v>60</v>
+        <v>59.756097560976</v>
       </c>
       <c r="BE15" t="n">
         <v>8</v>
@@ -5823,10 +5823,10 @@
         <v>61.538461538462</v>
       </c>
       <c r="BG15" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="BH15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BI15" t="n">
         <v>12</v>
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL15" t="n">
         <v>0</v>
@@ -5853,16 +5853,16 @@
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>96.2</v>
+        <v>103.2</v>
       </c>
       <c r="BR15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS15" t="n">
         <v>1</v>
       </c>
       <c r="BT15" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5886,13 +5886,13 @@
         <v>9</v>
       </c>
       <c r="CB15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CC15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CD15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
@@ -5937,13 +5937,13 @@
         <v>4</v>
       </c>
       <c r="CS15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CT15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="CU15" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="CV15" t="n">
         <v>5</v>
@@ -5958,13 +5958,13 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="DA15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="DB15" t="n">
-        <v>60</v>
+        <v>59.259259259259</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5976,10 +5976,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="DG15" t="n">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6010,339 +6010,341 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Job Ochieng</t>
+          <t>Jon Gorrotxategi</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1111081</v>
+        <v>1216309</v>
       </c>
       <c r="E16" t="n">
-        <v>6.7</v>
+        <v>6.7909090909091</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H16" t="n">
+        <v>1706</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.7028</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1706</v>
+      </c>
+      <c r="M16" t="n">
+        <v>11</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>9.090909090909101</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.440764</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1224</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>835</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>85.993820803296</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>971</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>420</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>415</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>168</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>51.923076923077</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>105</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>33</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>83</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>47.701149425287</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>62</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>50.406504065041</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>21</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>41.176470588235</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>177</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>23</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>17</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>5</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>29</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>22</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>136</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>8</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>12</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>41</v>
+      </c>
+      <c r="CD16" t="n">
         <v>25</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.0427943</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE16" t="n">
+      <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>26</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>12</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>12</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>4</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>91</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>30</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>52</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>24</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>64.864864864865</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>463</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>508</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI16" t="n">
         <v>9</v>
       </c>
-      <c r="AF16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>25</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>9</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR16" t="n">
-        <v>2</v>
-      </c>
-      <c r="CS16" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU16" t="n">
-        <v>3</v>
-      </c>
-      <c r="CV16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ16" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF16" t="n">
-        <v>4</v>
-      </c>
-      <c r="DG16" t="n">
-        <v>8</v>
-      </c>
-      <c r="DH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI16" t="n">
-        <v>0</v>
-      </c>
       <c r="DJ16" t="n">
-        <v>2661440</v>
+        <v>2170823</v>
       </c>
       <c r="DK16" t="inlineStr">
         <is>
@@ -6364,47 +6366,47 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Jon Gorrotxategi</t>
+          <t>Pablo Marín</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1216309</v>
+        <v>1139409</v>
       </c>
       <c r="E17" t="n">
-        <v>6.7714285714286</v>
+        <v>6.4285714285714</v>
       </c>
       <c r="F17" t="n">
         <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
-        <v>1616</v>
+        <v>969</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.643</v>
+        <v>1.1523</v>
       </c>
       <c r="L17" t="n">
-        <v>1616</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -6416,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -6428,181 +6430,181 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.5918071499999999</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>447</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>218</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>80.442804428044</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>271</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>87</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>131</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>61</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="n">
         <v>3</v>
       </c>
-      <c r="AA17" t="n">
-        <v>0.4031407</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>1124</v>
-      </c>
-      <c r="AC17" t="n">
+      <c r="AN17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>35.483870967742</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>37.037037037037</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>35</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>38.461538461538</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>29.411764705882</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>124</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ17" t="n">
         <v>2</v>
       </c>
-      <c r="AD17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>748</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>84.903518728717</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>881</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>371</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>377</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>150</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>47.916666666667</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>37</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>102</v>
-      </c>
-      <c r="AS17" t="n">
+      <c r="BK17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO17" t="n">
         <v>21</v>
       </c>
-      <c r="AT17" t="n">
-        <v>31</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>82</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>48.235294117647</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>62</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>51.239669421488</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>20</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>40.816326530612</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>173</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>23</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>17</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>5</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>25</v>
-      </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>142.2</v>
+        <v>135</v>
       </c>
       <c r="BR17" t="n">
         <v>21</v>
       </c>
       <c r="BS17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BT17" t="n">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
       </c>
       <c r="BV17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA17" t="n">
         <v>5</v>
       </c>
-      <c r="BW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>8</v>
-      </c>
       <c r="CB17" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="CC17" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="CD17" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -6620,10 +6622,10 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="CK17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CL17" t="n">
         <v>0</v>
@@ -6644,20 +6646,20 @@
         <v>0</v>
       </c>
       <c r="CR17" t="n">
+        <v>6</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>31</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>10</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>68</v>
+      </c>
+      <c r="CV17" t="n">
         <v>12</v>
       </c>
-      <c r="CS17" t="n">
-        <v>12</v>
-      </c>
-      <c r="CT17" t="n">
-        <v>4</v>
-      </c>
-      <c r="CU17" t="n">
-        <v>88</v>
-      </c>
-      <c r="CV17" t="n">
-        <v>29</v>
-      </c>
       <c r="CW17" t="n">
         <v>0</v>
       </c>
@@ -6668,13 +6670,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="DA17" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="DB17" t="n">
-        <v>64.864864864865</v>
+        <v>83.333333333333</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6686,19 +6688,19 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>413</v>
+        <v>106</v>
       </c>
       <c r="DG17" t="n">
-        <v>468</v>
+        <v>165</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
       </c>
       <c r="DI17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="DJ17" t="n">
-        <v>2170823</v>
+        <v>2141004</v>
       </c>
       <c r="DK17" t="inlineStr">
         <is>
@@ -6720,47 +6722,47 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Pablo Marín</t>
+          <t>Jon Aramburu</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1139409</v>
+        <v>1116388</v>
       </c>
       <c r="E18" t="n">
-        <v>6.445</v>
+        <v>6.6818181818182</v>
       </c>
       <c r="F18" t="n">
+        <v>22</v>
+      </c>
+      <c r="G18" t="n">
         <v>20</v>
       </c>
-      <c r="G18" t="n">
-        <v>9</v>
-      </c>
       <c r="H18" t="n">
-        <v>896</v>
+        <v>1820</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>1.0806</v>
+        <v>1.4711</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1820</v>
       </c>
       <c r="M18" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
         <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>6.6666666666667</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -6772,13 +6774,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -6787,121 +6789,121 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.56059065</v>
+        <v>0.42762861</v>
       </c>
       <c r="AB18" t="n">
-        <v>420</v>
+        <v>1363</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
-        <v>204</v>
+        <v>652</v>
       </c>
       <c r="AF18" t="n">
-        <v>79.6875</v>
+        <v>79.126213592233</v>
       </c>
       <c r="AG18" t="n">
-        <v>256</v>
+        <v>824</v>
       </c>
       <c r="AH18" t="n">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="AI18" t="n">
-        <v>122</v>
+        <v>331</v>
       </c>
       <c r="AJ18" t="n">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="AK18" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>30.769230769231</v>
+        <v>36.585365853659</v>
       </c>
       <c r="AM18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AN18" t="n">
-        <v>33.333333333333</v>
+        <v>15.151515151515</v>
       </c>
       <c r="AO18" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="AP18" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="AQ18" t="n">
         <v>2</v>
       </c>
       <c r="AR18" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AS18" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="AT18" t="n">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="AU18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY18" t="n">
         <v>4</v>
       </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>10</v>
-      </c>
       <c r="AZ18" t="n">
-        <v>38.461538461538</v>
+        <v>36.363636363636</v>
       </c>
       <c r="BA18" t="n">
+        <v>147</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>56.32183908046</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>108</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>52.173913043478</v>
+      </c>
+      <c r="BE18" t="n">
         <v>39</v>
       </c>
-      <c r="BB18" t="n">
-        <v>38.235294117647</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>34</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>40</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>5</v>
-      </c>
       <c r="BF18" t="n">
-        <v>29.411764705882</v>
+        <v>72.222222222222</v>
       </c>
       <c r="BG18" t="n">
-        <v>116</v>
+        <v>282</v>
       </c>
       <c r="BH18" t="n">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="BI18" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="BJ18" t="n">
         <v>2</v>
       </c>
       <c r="BK18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BL18" t="n">
         <v>0</v>
@@ -6910,31 +6912,31 @@
         <v>0</v>
       </c>
       <c r="BN18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO18" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>128.9</v>
+        <v>147</v>
       </c>
       <c r="BR18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BS18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT18" t="n">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
       </c>
       <c r="BV18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BW18" t="n">
         <v>0</v>
@@ -6946,115 +6948,115 @@
         <v>0</v>
       </c>
       <c r="BZ18" t="n">
+        <v>8</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>7</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>39</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>13</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>27</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>7</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>11</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>33</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>114</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>15</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>82</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>45</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>60</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>380</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>444</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI18" t="n">
         <v>6</v>
       </c>
-      <c r="CA18" t="n">
-        <v>5</v>
-      </c>
-      <c r="CB18" t="n">
-        <v>14</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>11</v>
-      </c>
-      <c r="CD18" t="n">
-        <v>4</v>
-      </c>
-      <c r="CE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>16</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR18" t="n">
-        <v>6</v>
-      </c>
-      <c r="CS18" t="n">
-        <v>26</v>
-      </c>
-      <c r="CT18" t="n">
-        <v>9</v>
-      </c>
-      <c r="CU18" t="n">
-        <v>63</v>
-      </c>
-      <c r="CV18" t="n">
-        <v>12</v>
-      </c>
-      <c r="CW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ18" t="n">
-        <v>13</v>
-      </c>
-      <c r="DA18" t="n">
-        <v>10</v>
-      </c>
-      <c r="DB18" t="n">
-        <v>83.333333333333</v>
-      </c>
-      <c r="DC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF18" t="n">
-        <v>100</v>
-      </c>
-      <c r="DG18" t="n">
-        <v>156</v>
-      </c>
-      <c r="DH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI18" t="n">
-        <v>1</v>
-      </c>
       <c r="DJ18" t="n">
-        <v>2141004</v>
+        <v>2141032</v>
       </c>
       <c r="DK18" t="inlineStr">
         <is>
@@ -7076,341 +7078,341 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Jon Aramburu</t>
+          <t>Duje Ćaleta-Car</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1116388</v>
+        <v>257091</v>
       </c>
       <c r="E19" t="n">
-        <v>6.7714285714286</v>
+        <v>6.7933333333333</v>
       </c>
       <c r="F19" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H19" t="n">
-        <v>1730</v>
+        <v>1147</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.4711</v>
+        <v>0.6384</v>
       </c>
       <c r="L19" t="n">
-        <v>1730</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.52671893</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>841</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>627</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>88.936170212766</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>705</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>428</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>199</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>44.776119402985</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
         <v>15</v>
       </c>
-      <c r="N19" t="n">
-        <v>5</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="AP19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>39</v>
+      </c>
+      <c r="AS19" t="n">
         <v>2</v>
       </c>
-      <c r="P19" t="n">
-        <v>6.6666666666667</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.41618481</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1301</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="n">
+      <c r="AT19" t="n">
+        <v>58</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>63</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>58.878504672897</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>47.058823529412</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>47</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>64.383561643836</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>80</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>15</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>15</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>78</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>6</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>32</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>18</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>14</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>3</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>44</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>26</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>67</v>
+      </c>
+      <c r="DA19" t="n">
         <v>7</v>
       </c>
-      <c r="AE19" t="n">
-        <v>611</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>78.43388960205399</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>779</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>299</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>312</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>35.802469135802</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>15.151515151515</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>72</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>33</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>61</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>36.363636363636</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>141</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>102</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>52.040816326531</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>39</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>72.222222222222</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>276</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>44</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>28</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>7</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>25</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>21</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>168</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>7</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>8</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>7</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>10</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>38</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>13</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>23</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>7</v>
-      </c>
-      <c r="CS19" t="n">
+      <c r="DB19" t="n">
+        <v>70</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>454</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>251</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>15</v>
+      </c>
+      <c r="DI19" t="n">
         <v>11</v>
       </c>
-      <c r="CT19" t="n">
-        <v>33</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>109</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>15</v>
-      </c>
-      <c r="CW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ19" t="n">
-        <v>81</v>
-      </c>
-      <c r="DA19" t="n">
-        <v>43</v>
-      </c>
-      <c r="DB19" t="n">
-        <v>59.722222222222</v>
-      </c>
-      <c r="DC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF19" t="n">
-        <v>356</v>
-      </c>
-      <c r="DG19" t="n">
-        <v>423</v>
-      </c>
-      <c r="DH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI19" t="n">
-        <v>6</v>
-      </c>
       <c r="DJ19" t="n">
-        <v>2141032</v>
+        <v>2140996</v>
       </c>
       <c r="DK19" t="inlineStr">
         <is>
@@ -7432,47 +7434,47 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Duje Ćaleta-Car</t>
+          <t>Álvaro Odriozola</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>257091</v>
+        <v>353250</v>
       </c>
       <c r="E20" t="n">
-        <v>6.7933333333333</v>
+        <v>7.05</v>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>1147</v>
+        <v>199</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6384</v>
+        <v>0.5154</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="M20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -7484,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7496,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -7505,172 +7507,172 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.52671893</v>
+        <v>0.3547884</v>
       </c>
       <c r="AB20" t="n">
-        <v>841</v>
+        <v>70</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD20" t="n">
         <v>3</v>
       </c>
       <c r="AE20" t="n">
-        <v>627</v>
+        <v>24</v>
       </c>
       <c r="AF20" t="n">
-        <v>88.936170212766</v>
+        <v>85.71428571428601</v>
       </c>
       <c r="AG20" t="n">
-        <v>705</v>
+        <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>428</v>
+        <v>7</v>
       </c>
       <c r="AI20" t="n">
-        <v>199</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="AK20" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AL20" t="n">
-        <v>44.776119402985</v>
+        <v>100</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>66.666666666667</v>
       </c>
       <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>60</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>61.538461538462</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>50</v>
+      </c>
+      <c r="BG20" t="n">
         <v>15</v>
       </c>
-      <c r="AP20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>39</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>58</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>63</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>58.878504672897</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>16</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>47.058823529412</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>47</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>64.383561643836</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>80</v>
-      </c>
       <c r="BH20" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="BI20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BJ20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO20" t="n">
         <v>4</v>
       </c>
-      <c r="BL20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>15</v>
-      </c>
       <c r="BP20" t="n">
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>101.9</v>
+        <v>28.2</v>
       </c>
       <c r="BR20" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="BS20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT20" t="n">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="BU20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC20" t="n">
         <v>4</v>
       </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>6</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>32</v>
-      </c>
       <c r="CD20" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -7688,10 +7690,10 @@
         <v>0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="CK20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL20" t="n">
         <v>0</v>
@@ -7715,16 +7717,16 @@
         <v>3</v>
       </c>
       <c r="CS20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CT20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CU20" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="CV20" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7736,13 +7738,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="DA20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="DB20" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7754,19 +7756,19 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>454</v>
+        <v>9</v>
       </c>
       <c r="DG20" t="n">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="DH20" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="DI20" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="DJ20" t="n">
-        <v>2140996</v>
+        <v>2321224</v>
       </c>
       <c r="DK20" t="inlineStr">
         <is>
@@ -7788,299 +7790,299 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Álvaro Odriozola</t>
+          <t>Jon Martin</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>353250</v>
+        <v>1466116</v>
       </c>
       <c r="E21" t="n">
-        <v>7.05</v>
+        <v>6.8733333333333</v>
       </c>
       <c r="F21" t="n">
+        <v>15</v>
+      </c>
+      <c r="G21" t="n">
+        <v>15</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1350</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.0298</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>11</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.12976363</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>963</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>691</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>91.523178807947</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>755</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>477</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>214</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>58</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>55.555555555556</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>39</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>84</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>66.393442622951</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>30</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>68.918918918919</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>80</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="n">
         <v>4</v>
       </c>
-      <c r="G21" t="n">
+      <c r="BL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>23</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>103.1</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>15</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>64</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>11</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>20</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>8</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>21</v>
+      </c>
+      <c r="CK21" t="n">
         <v>2</v>
       </c>
-      <c r="H21" t="n">
-        <v>199</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.5154</v>
-      </c>
-      <c r="L21" t="n">
-        <v>199</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.3547884</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AC21" t="n">
+      <c r="CL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR21" t="n">
         <v>2</v>
       </c>
-      <c r="AD21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>85.71428571428601</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA21" t="n">
+      <c r="CS21" t="n">
         <v>9</v>
       </c>
-      <c r="BB21" t="n">
-        <v>60</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>61.538461538462</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>50</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>15</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>4</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>4</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>4</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>4</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>3</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>4</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR21" t="n">
-        <v>3</v>
-      </c>
-      <c r="CS21" t="n">
-        <v>2</v>
-      </c>
       <c r="CT21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CU21" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="CV21" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8092,13 +8094,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="DA21" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="DB21" t="n">
-        <v>20</v>
+        <v>56.25</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8110,19 +8112,19 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>9</v>
+        <v>495</v>
       </c>
       <c r="DG21" t="n">
+        <v>260</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI21" t="n">
         <v>19</v>
       </c>
-      <c r="DH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI21" t="n">
-        <v>2</v>
-      </c>
       <c r="DJ21" t="n">
-        <v>2321224</v>
+        <v>2170827</v>
       </c>
       <c r="DK21" t="inlineStr">
         <is>
@@ -8144,23 +8146,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Jon Martin</t>
+          <t>Igor Zubeldia</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1466116</v>
+        <v>838159</v>
       </c>
       <c r="E22" t="n">
-        <v>6.8428571428571</v>
+        <v>6.6578947368421</v>
       </c>
       <c r="F22" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G22" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H22" t="n">
-        <v>1260</v>
+        <v>1665</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8169,19 +8171,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.719</v>
+        <v>0.2423</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -8211,46 +8213,46 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.11642433</v>
+        <v>0.40866821</v>
       </c>
       <c r="AB22" t="n">
-        <v>867</v>
+        <v>1136</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
-        <v>621</v>
+        <v>767</v>
       </c>
       <c r="AF22" t="n">
-        <v>91.32352941176499</v>
+        <v>87.15909090909101</v>
       </c>
       <c r="AG22" t="n">
-        <v>680</v>
+        <v>880</v>
       </c>
       <c r="AH22" t="n">
-        <v>426</v>
+        <v>553</v>
       </c>
       <c r="AI22" t="n">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="AJ22" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AK22" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AL22" t="n">
-        <v>52.941176470588</v>
+        <v>34.408602150538</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -8259,148 +8261,148 @@
         <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP22" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AQ22" t="n">
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AT22" t="n">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AU22" t="n">
         <v>2</v>
       </c>
       <c r="AV22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW22" t="n">
         <v>0</v>
       </c>
       <c r="AX22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AZ22" t="n">
-        <v>66.666666666667</v>
+        <v>25</v>
       </c>
       <c r="BA22" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BB22" t="n">
-        <v>64.957264957265</v>
+        <v>48.701298701299</v>
       </c>
       <c r="BC22" t="n">
+        <v>33</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>47.142857142857</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>42</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>50</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>125</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>29</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>7</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>28</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>19</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>113</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>4</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>50</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>17</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
         <v>26</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>59.090909090909</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>50</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>68.493150684932</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>75</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>12</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>4</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>19</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>14</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>59</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>5</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>9</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>3</v>
-      </c>
-      <c r="CC22" t="n">
-        <v>20</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>8</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>17</v>
       </c>
       <c r="CK22" t="n">
         <v>2</v>
@@ -8424,19 +8426,19 @@
         <v>0</v>
       </c>
       <c r="CR22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="CS22" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="CT22" t="n">
         <v>0</v>
       </c>
       <c r="CU22" t="n">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="CV22" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="CW22" t="n">
         <v>0</v>
@@ -8448,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="DA22" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="DB22" t="n">
-        <v>46.153846153846</v>
+        <v>58.620689655172</v>
       </c>
       <c r="DC22" t="n">
         <v>0</v>
@@ -8466,19 +8468,19 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>443</v>
+        <v>578</v>
       </c>
       <c r="DG22" t="n">
-        <v>237</v>
+        <v>302</v>
       </c>
       <c r="DH22" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="DI22" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="DJ22" t="n">
-        <v>2170827</v>
+        <v>2141008</v>
       </c>
       <c r="DK22" t="inlineStr">
         <is>
@@ -8500,23 +8502,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Igor Zubeldia</t>
+          <t>Aihen Muñoz</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>838159</v>
+        <v>966441</v>
       </c>
       <c r="E23" t="n">
-        <v>6.6777777777778</v>
+        <v>6.5125</v>
       </c>
       <c r="F23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H23" t="n">
-        <v>1575</v>
+        <v>700</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -8525,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2423</v>
+        <v>0.4363</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -8537,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -8570,230 +8572,230 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.39766621</v>
+        <v>0.44043966</v>
       </c>
       <c r="AB23" t="n">
-        <v>1055</v>
+        <v>422</v>
       </c>
       <c r="AC23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>205</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>83.333333333333</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>246</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>104</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="AM23" t="n">
         <v>5</v>
       </c>
-      <c r="AE23" t="n">
-        <v>700</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>86.633663366337</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>808</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>501</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>199</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>34.090909090909</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>27.777777777778</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AP23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT23" t="n">
         <v>27</v>
       </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>47</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>129</v>
-      </c>
       <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
         <v>2</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>1</v>
       </c>
       <c r="AZ23" t="n">
         <v>25</v>
       </c>
       <c r="BA23" t="n">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="BB23" t="n">
-        <v>48.322147651007</v>
+        <v>50.724637681159</v>
       </c>
       <c r="BC23" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="BD23" t="n">
-        <v>46.268656716418</v>
+        <v>49.122807017544</v>
       </c>
       <c r="BE23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>58.333333333333</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>88</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>14</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>104.2</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>16</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT23" t="n">
         <v>41</v>
       </c>
-      <c r="BF23" t="n">
-        <v>50</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>119</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>29</v>
-      </c>
-      <c r="BI23" t="n">
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV23" t="n">
         <v>4</v>
       </c>
-      <c r="BJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>7</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>24</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ23" t="n">
-        <v>120.2</v>
-      </c>
-      <c r="BR23" t="n">
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>3</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>13</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>6</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>14</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>8</v>
+      </c>
+      <c r="CT23" t="n">
         <v>18</v>
       </c>
-      <c r="BS23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>108</v>
-      </c>
-      <c r="BU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>4</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC23" t="n">
-        <v>49</v>
-      </c>
-      <c r="CD23" t="n">
-        <v>17</v>
-      </c>
-      <c r="CE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ23" t="n">
-        <v>22</v>
-      </c>
-      <c r="CK23" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR23" t="n">
+      <c r="CU23" t="n">
+        <v>34</v>
+      </c>
+      <c r="CV23" t="n">
         <v>5</v>
       </c>
-      <c r="CS23" t="n">
-        <v>4</v>
-      </c>
-      <c r="CT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU23" t="n">
-        <v>77</v>
-      </c>
-      <c r="CV23" t="n">
-        <v>41</v>
-      </c>
       <c r="CW23" t="n">
         <v>0</v>
       </c>
@@ -8804,13 +8806,13 @@
         <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="DA23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="DB23" t="n">
-        <v>59.259259259259</v>
+        <v>60</v>
       </c>
       <c r="DC23" t="n">
         <v>0</v>
@@ -8822,19 +8824,19 @@
         <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>526</v>
+        <v>120</v>
       </c>
       <c r="DG23" t="n">
-        <v>282</v>
+        <v>126</v>
       </c>
       <c r="DH23" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="DI23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="DJ23" t="n">
-        <v>2141008</v>
+        <v>2141026</v>
       </c>
       <c r="DK23" t="inlineStr">
         <is>
@@ -8856,179 +8858,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Aihen Muñoz</t>
+          <t>Aritz Elustondo</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>966441</v>
+        <v>785468</v>
       </c>
       <c r="E24" t="n">
-        <v>6.5733333333333</v>
+        <v>6.4714285714286</v>
       </c>
       <c r="F24" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G24" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>343</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.1518</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.03286236</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>253</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>147</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>168</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>96</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK24" t="n">
         <v>6</v>
       </c>
-      <c r="H24" t="n">
-        <v>610</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.1655</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>3</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.29260666</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>368</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>171</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>82.60869565217401</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>207</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>84</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>87</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK24" t="n">
+      <c r="AL24" t="n">
+        <v>42.857142857143</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>37.837837837838</v>
+      </c>
+      <c r="BC24" t="n">
         <v>9</v>
       </c>
-      <c r="AL24" t="n">
+      <c r="BD24" t="n">
         <v>34.615384615385</v>
       </c>
-      <c r="AM24" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>26.666666666667</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>4</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>27</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>25</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>34</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>50.746268656716</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>27</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>49.090909090909</v>
-      </c>
       <c r="BE24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BF24" t="n">
-        <v>58.333333333333</v>
+        <v>45.454545454545</v>
       </c>
       <c r="BG24" t="n">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="BH24" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BI24" t="n">
         <v>3</v>
@@ -9037,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="BK24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL24" t="n">
         <v>0</v>
@@ -9049,148 +9051,148 @@
         <v>0</v>
       </c>
       <c r="BO24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>21</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC24" t="n">
         <v>10</v>
       </c>
-      <c r="BP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ24" t="n">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="BR24" t="n">
-        <v>15</v>
-      </c>
-      <c r="BS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT24" t="n">
-        <v>36</v>
-      </c>
-      <c r="BU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV24" t="n">
+      <c r="CD24" t="n">
+        <v>5</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>5</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT24" t="n">
         <v>3</v>
       </c>
-      <c r="BW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA24" t="n">
+      <c r="CU24" t="n">
+        <v>23</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>6</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>14</v>
+      </c>
+      <c r="DA24" t="n">
+        <v>2</v>
+      </c>
+      <c r="DB24" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>105</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>63</v>
+      </c>
+      <c r="DH24" t="n">
         <v>3</v>
       </c>
-      <c r="CB24" t="n">
+      <c r="DI24" t="n">
         <v>2</v>
       </c>
-      <c r="CC24" t="n">
-        <v>12</v>
-      </c>
-      <c r="CD24" t="n">
-        <v>6</v>
-      </c>
-      <c r="CE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ24" t="n">
-        <v>10</v>
-      </c>
-      <c r="CK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR24" t="n">
-        <v>3</v>
-      </c>
-      <c r="CS24" t="n">
-        <v>8</v>
-      </c>
-      <c r="CT24" t="n">
-        <v>15</v>
-      </c>
-      <c r="CU24" t="n">
-        <v>33</v>
-      </c>
-      <c r="CV24" t="n">
-        <v>5</v>
-      </c>
-      <c r="CW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ24" t="n">
-        <v>26</v>
-      </c>
-      <c r="DA24" t="n">
-        <v>15</v>
-      </c>
-      <c r="DB24" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="DC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF24" t="n">
-        <v>99</v>
-      </c>
-      <c r="DG24" t="n">
-        <v>108</v>
-      </c>
-      <c r="DH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI24" t="n">
-        <v>0</v>
-      </c>
       <c r="DJ24" t="n">
-        <v>2141026</v>
+        <v>2140986</v>
       </c>
       <c r="DK24" t="inlineStr">
         <is>
@@ -9212,23 +9214,23 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Aritz Elustondo</t>
+          <t>Álex Remiro</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>785468</v>
+        <v>791773</v>
       </c>
       <c r="E25" t="n">
-        <v>6.4714285714286</v>
+        <v>6.8666666666667</v>
       </c>
       <c r="F25" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H25" t="n">
-        <v>343</v>
+        <v>2160</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -9236,17 +9238,15 @@
       <c r="J25" t="n">
         <v>0</v>
       </c>
-      <c r="K25" t="n">
-        <v>0.1518</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -9285,106 +9285,106 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.03286236</v>
+        <v>0.05930467</v>
       </c>
       <c r="AB25" t="n">
-        <v>253</v>
+        <v>1032</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>147</v>
+        <v>579</v>
       </c>
       <c r="AF25" t="n">
-        <v>87.5</v>
+        <v>69.92753623188401</v>
       </c>
       <c r="AG25" t="n">
-        <v>168</v>
+        <v>828</v>
       </c>
       <c r="AH25" t="n">
-        <v>96</v>
+        <v>471</v>
       </c>
       <c r="AI25" t="n">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="AJ25" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="AK25" t="n">
-        <v>6</v>
+        <v>180</v>
       </c>
       <c r="AL25" t="n">
-        <v>42.857142857143</v>
+        <v>42.253521126761</v>
       </c>
       <c r="AM25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>33.333333333333</v>
+        <v>0</v>
       </c>
       <c r="AO25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>188</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>90.90909090909101</v>
+      </c>
+      <c r="BC25" t="n">
         <v>5</v>
       </c>
-      <c r="AP25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>14</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>37.837837837838</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>9</v>
-      </c>
       <c r="BD25" t="n">
-        <v>34.615384615385</v>
+        <v>83.333333333333</v>
       </c>
       <c r="BE25" t="n">
         <v>5</v>
       </c>
       <c r="BF25" t="n">
-        <v>45.454545454545</v>
+        <v>100</v>
       </c>
       <c r="BG25" t="n">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="BH25" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BI25" t="n">
         <v>3</v>
@@ -9399,91 +9399,91 @@
         <v>0</v>
       </c>
       <c r="BM25" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="BN25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO25" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="BP25" t="n">
         <v>0</v>
       </c>
       <c r="BQ25" t="n">
-        <v>45.3</v>
+        <v>164.8</v>
       </c>
       <c r="BR25" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="BS25" t="n">
         <v>0</v>
       </c>
       <c r="BT25" t="n">
+        <v>249</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>107</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>70</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>5</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>33</v>
+      </c>
+      <c r="CI25" t="n">
         <v>21</v>
       </c>
-      <c r="BU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ25" t="n">
-        <v>2</v>
-      </c>
-      <c r="CA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC25" t="n">
-        <v>10</v>
-      </c>
-      <c r="CD25" t="n">
-        <v>5</v>
-      </c>
-      <c r="CE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI25" t="n">
-        <v>0</v>
-      </c>
       <c r="CJ25" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="CK25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CL25" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="CM25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="CN25" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="CO25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="CP25" t="n">
         <v>0</v>
@@ -9492,19 +9492,19 @@
         <v>0</v>
       </c>
       <c r="CR25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CS25" t="n">
         <v>1</v>
       </c>
       <c r="CT25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CU25" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="CV25" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CW25" t="n">
         <v>0</v>
@@ -9516,13 +9516,13 @@
         <v>0</v>
       </c>
       <c r="CZ25" t="n">
-        <v>14</v>
+        <v>426</v>
       </c>
       <c r="DA25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DB25" t="n">
-        <v>33.333333333333</v>
+        <v>100</v>
       </c>
       <c r="DC25" t="n">
         <v>0</v>
@@ -9531,384 +9531,30 @@
         <v>0</v>
       </c>
       <c r="DE25" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="DF25" t="n">
-        <v>105</v>
+        <v>527</v>
       </c>
       <c r="DG25" t="n">
-        <v>63</v>
+        <v>301</v>
       </c>
       <c r="DH25" t="n">
-        <v>3</v>
+        <v>151</v>
       </c>
       <c r="DI25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DJ25" t="n">
-        <v>2140986</v>
+        <v>2140990</v>
       </c>
       <c r="DK25" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="DL25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>La_Liga</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Real Sociedad</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Álex Remiro</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>791773</v>
-      </c>
-      <c r="E26" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="F26" t="n">
-        <v>23</v>
-      </c>
-      <c r="G26" t="n">
-        <v>23</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2070</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.05895102</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>996</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>547</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>68.978562421185</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>793</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>441</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>106</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>177</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>42.142857142857</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>183</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>90.90909090909101</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>83.333333333333</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>100</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>253</v>
-      </c>
-      <c r="BH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI26" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM26" t="n">
-        <v>56</v>
-      </c>
-      <c r="BN26" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO26" t="n">
-        <v>31</v>
-      </c>
-      <c r="BP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ26" t="n">
-        <v>158.7</v>
-      </c>
-      <c r="BR26" t="n">
-        <v>23</v>
-      </c>
-      <c r="BS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT26" t="n">
-        <v>246</v>
-      </c>
-      <c r="BU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC26" t="n">
-        <v>105</v>
-      </c>
-      <c r="CD26" t="n">
-        <v>68</v>
-      </c>
-      <c r="CE26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG26" t="n">
-        <v>3</v>
-      </c>
-      <c r="CH26" t="n">
-        <v>33</v>
-      </c>
-      <c r="CI26" t="n">
-        <v>21</v>
-      </c>
-      <c r="CJ26" t="n">
-        <v>28</v>
-      </c>
-      <c r="CK26" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL26" t="n">
-        <v>16</v>
-      </c>
-      <c r="CM26" t="n">
-        <v>11</v>
-      </c>
-      <c r="CN26" t="n">
-        <v>10</v>
-      </c>
-      <c r="CO26" t="n">
-        <v>15</v>
-      </c>
-      <c r="CP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR26" t="n">
-        <v>3</v>
-      </c>
-      <c r="CS26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ26" t="n">
-        <v>420</v>
-      </c>
-      <c r="DA26" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB26" t="n">
-        <v>100</v>
-      </c>
-      <c r="DC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE26" t="n">
-        <v>16</v>
-      </c>
-      <c r="DF26" t="n">
-        <v>497</v>
-      </c>
-      <c r="DG26" t="n">
-        <v>296</v>
-      </c>
-      <c r="DH26" t="n">
-        <v>148</v>
-      </c>
-      <c r="DI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ26" t="n">
-        <v>2140990</v>
-      </c>
-      <c r="DK26" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="DL26" t="n">
-        <v>-2.1886</v>
+      <c r="DL25" t="n">
+        <v>-3.3207</v>
       </c>
     </row>
   </sheetData>
